--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062DDFB1-B4EC-4AE4-BE58-F6392588CEC4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02703193-4472-4D0F-83C8-05859E9ACE4E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35160" yWindow="7080" windowWidth="17280" windowHeight="12585" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4122" uniqueCount="2749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4126" uniqueCount="2753">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -8291,6 +8291,18 @@
   </si>
   <si>
     <t>https://medium.com/datadriveninvestor/bending-bitcoin-the-principle-of-hard-money-ad577bdfbc14</t>
+  </si>
+  <si>
+    <t>Exploring Bitcoin Governance</t>
+  </si>
+  <si>
+    <t>https://medium.com/@bitcoinchronicles/exploring-bitcoin-governance-4d5872e0900b</t>
+  </si>
+  <si>
+    <t>https://hackernoon.com/why-bitcoin-why-sooner-rather-than-later-e44aa5373479</t>
+  </si>
+  <si>
+    <t>Why Bitcoin &amp; why sooner rather than later?</t>
   </si>
 </sst>
 </file>
@@ -12169,8 +12181,8 @@
   <dimension ref="A1:Y1891"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <pane ySplit="3" topLeftCell="A469" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B500" sqref="B500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13880,12 +13892,18 @@
     </row>
     <row r="122" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="56"/>
-      <c r="B122" s="56"/>
+      <c r="B122" s="74">
+        <v>43714</v>
+      </c>
       <c r="C122" s="75"/>
       <c r="D122" s="56"/>
       <c r="E122" s="56"/>
-      <c r="F122" s="56"/>
-      <c r="G122" s="56"/>
+      <c r="F122" s="56" t="s">
+        <v>2749</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>2750</v>
+      </c>
     </row>
     <row r="123" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="56"/>
@@ -18790,6 +18808,17 @@
       </c>
       <c r="G498" s="55" t="s">
         <v>2581</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B499" s="32">
+        <v>43346</v>
+      </c>
+      <c r="F499" t="s">
+        <v>2752</v>
+      </c>
+      <c r="G499" s="3" t="s">
+        <v>2751</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
@@ -31245,13 +31274,13 @@
   <conditionalFormatting sqref="G75">
     <cfRule type="duplicateValues" dxfId="45" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1673 G1727:G1048576 G1648:G1651 G1653:G1663 G1699:G1704 G467:G471 G732:G754 G76:G95 G97 G72:G74 G1:G12 G38:G40 G46:G62 G64:G66 F63 G68 G118:G120 G157:G158 G160:G165 G170:G183 G334:G386 G451:G455 G458:G461 G238:G243 G557:G558 G511:G545 G475:G508 G547:G553 G562:G563 G581:G582 G560 G589:G594 G780:G785 G1048:G1052 G1238:G1244 G1246:G1251 G1397:G1403 G1491 G1495 G1607:G1611 G1641:G1645 G1622:G1624 G778 G555 H1202 G199:G228 G230:G231 G584:G587 G140:G155 G1719:G1725 G1712:G1717 G1706:G1710 G1678:G1687 G1627:G1639 G1618:G1620 G1615 G1585:G1586 G1567:G1582 G1564 G1538:G1559 G1512:G1534 G1445:G1484 G1432:G1443 G1405:G1423 G1360:G1393 G1346:G1358 G1329:G1335 G1342:G1343 G1313:G1326 G1293:G1305 G1272:G1291 G1255:G1269 G1217:G1236 G1205:G1214 G1186:G1202 G1170:G1184 G1134:G1163 G1122:G1131 G1102:G1120 G1084:G1099 G1055:G1081 G1004:G1046 G1002 G984:G993 G974:G978 G951:G963 G924:G947 G917:G922 G909:G915 G898:G907 G894:G895 G888:G891 G878:G886 G859:G875 G848:G856 G823:G845 G813:G821 G793:G809 G758:G776 G671:G730 G650:G669 G616:G623 G625:G645 G602:G611 G596 G613:G614 G573:G576 F572 G396:G401 G403:G448 G390:G394 G245:G329 G185 G187:G197 H126 G115 G578:G579 G99:G112 G42:G43 G122:G138">
+  <conditionalFormatting sqref="G1673 G1727:G1048576 G1648:G1651 G1653:G1663 G1699:G1704 G467:G471 G732:G754 G76:G95 G97 G72:G74 G1:G12 G38:G40 G46:G62 G64:G66 F63 G68 G118:G120 G157:G158 G160:G165 G170:G183 G334:G386 G451:G455 G458:G461 G238:G243 G557:G558 G511:G545 G475:G498 G547:G553 G562:G563 G581:G582 G560 G589:G594 G780:G785 G1048:G1052 G1238:G1244 G1246:G1251 G1397:G1403 G1491 G1495 G1607:G1611 G1641:G1645 G1622:G1624 G778 G555 H1202 G199:G228 G230:G231 G584:G587 G140:G155 G1719:G1725 G1712:G1717 G1706:G1710 G1678:G1687 G1627:G1639 G1618:G1620 G1615 G1585:G1586 G1567:G1582 G1564 G1538:G1559 G1512:G1534 G1445:G1484 G1432:G1443 G1405:G1423 G1360:G1393 G1346:G1358 G1329:G1335 G1342:G1343 G1313:G1326 G1293:G1305 G1272:G1291 G1255:G1269 G1217:G1236 G1205:G1214 G1186:G1202 G1170:G1184 G1134:G1163 G1122:G1131 G1102:G1120 G1084:G1099 G1055:G1081 G1004:G1046 G1002 G984:G993 G974:G978 G951:G963 G924:G947 G917:G922 G909:G915 G898:G907 G894:G895 G888:G891 G878:G886 G859:G875 G848:G856 G823:G845 G813:G821 G793:G809 G758:G776 G671:G730 G650:G669 G616:G623 G625:G645 G602:G611 G596 G613:G614 G573:G576 F572 G396:G401 G403:G448 G390:G394 G245:G329 G185 G187:G197 H126 G115 G578:G579 G99:G112 G42:G43 G123:G138 G500:G508">
     <cfRule type="duplicateValues" dxfId="44" priority="13961"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1817:G1832 G1673 G1764:G1771 G461 G584:G587 G451 G385:G386 G1649:G1651 G1653:G1663 G1699:G1704 G1581:G1582 G478:G487 G684:G686 G1577 G1435:G1439 G1454:G1481 G1484 G1491 G1495 G1366:G1371 G1391 G1376:G1388 G1374 G1123 G1171:G1181 G1183 G942:G945 G939 G816:G821 G918:G922 G813 G76:G95 G97 G72:G74 G1:G12 G38:G40 G193 G46:G62 G64:G66 F63 G68 G118:G120 G322:G326 G339 G300:G319 G765 G767 G562 G557:G558 G553 G500 G547:G548 G1329:G1333 G1305 G1229:G1235 G1264:G1269 G1094:G1098 G1084:G1088 G1090:G1092 G1007:G1008 G1056:G1065 G1140:G1148 G1153:G1163 G1531:G1534 G1405:G1412 G1276:G1277 G1279:G1281 G1284 G1286:G1288 G1545:G1550 G1553:G1558 G1564 G1569:G1575 G1516:G1522 G1441:G1443 G1222:G1227 G855:G856 G875 G1050 G1251 G1199 G1067 G988:G991 G1248:G1249 G749 G849:G850 G963 G1421 G1524:G1528 G1539 G688:G690 G692:G696 G698:G730 G732:G747 G886 G1076:G1078 G773:G776 G780:G785 G825:G845 G778 G662 G673 G675:G677 G637:G639 G641:G645 G551 G535:G539 G512:G517 G336:G337 G754 G794:G797 G861 G891 G925:G935 G957:G960 G993 G1013:G1046 G1069:G1074 G1102:G1110 G1186:G1195 G1243:G1244 G1246 G1291 G1299:G1303 G1414:G1419 G1607 G1609:G1611 G1622:G1624 G1712:G1715 G1717 G1727:G1755 G1773:G1797 G1834:G1839 G1843:G1048576 G581 G611 G1708:G1709 G341:G383 G398:G401 G403:G444 G446:G448 G475 G519:G532 G502:G505 G578:G579 G589:G594 G560 G1202:H1202 G625:G634 G602:G607 G596 G623 G140:G153 G187 G1719:G1722 G1678:G1687 G1627:G1634 G1618:G1620 G1615 G1585:G1586 G1567 G1512:G1514 G1445:G1450 G1314:G1326 G1293:G1296 G1272 G1255:G1261 G1217:G1220 G1205:G1214 G1004:G1005 G1002 G984 G974:G978 G909:G912 G898:G907 G894:G895 G888:G889 G878:G883 G859 G758:G763 G650:G656 G616:G617 G613:G614 G392:G394 H126 G115 G99:G112 G42:G43 G122:G138">
+  <conditionalFormatting sqref="G1817:G1832 G1673 G1764:G1771 G461 G584:G587 G451 G385:G386 G1649:G1651 G1653:G1663 G1699:G1704 G1581:G1582 G478:G487 G684:G686 G1577 G1435:G1439 G1454:G1481 G1484 G1491 G1495 G1366:G1371 G1391 G1376:G1388 G1374 G1123 G1171:G1181 G1183 G942:G945 G939 G816:G821 G918:G922 G813 G76:G95 G97 G72:G74 G1:G12 G38:G40 G193 G46:G62 G64:G66 F63 G68 G118:G120 G322:G326 G339 G300:G319 G765 G767 G562 G557:G558 G553 G500 G547:G548 G1329:G1333 G1305 G1229:G1235 G1264:G1269 G1094:G1098 G1084:G1088 G1090:G1092 G1007:G1008 G1056:G1065 G1140:G1148 G1153:G1163 G1531:G1534 G1405:G1412 G1276:G1277 G1279:G1281 G1284 G1286:G1288 G1545:G1550 G1553:G1558 G1564 G1569:G1575 G1516:G1522 G1441:G1443 G1222:G1227 G855:G856 G875 G1050 G1251 G1199 G1067 G988:G991 G1248:G1249 G749 G849:G850 G963 G1421 G1524:G1528 G1539 G688:G690 G692:G696 G698:G730 G732:G747 G886 G1076:G1078 G773:G776 G780:G785 G825:G845 G778 G662 G673 G675:G677 G637:G639 G641:G645 G551 G535:G539 G512:G517 G336:G337 G754 G794:G797 G861 G891 G925:G935 G957:G960 G993 G1013:G1046 G1069:G1074 G1102:G1110 G1186:G1195 G1243:G1244 G1246 G1291 G1299:G1303 G1414:G1419 G1607 G1609:G1611 G1622:G1624 G1712:G1715 G1717 G1727:G1755 G1773:G1797 G1834:G1839 G1843:G1048576 G581 G611 G1708:G1709 G341:G383 G398:G401 G403:G444 G446:G448 G475 G519:G532 G502:G505 G578:G579 G589:G594 G560 G1202:H1202 G625:G634 G602:G607 G596 G623 G140:G153 G187 G1719:G1722 G1678:G1687 G1627:G1634 G1618:G1620 G1615 G1585:G1586 G1567 G1512:G1514 G1445:G1450 G1314:G1326 G1293:G1296 G1272 G1255:G1261 G1217:G1220 G1205:G1214 G1004:G1005 G1002 G984 G974:G978 G909:G912 G898:G907 G894:G895 G888:G889 G878:G883 G859 G758:G763 G650:G656 G616:G617 G613:G614 G392:G394 H126 G115 G99:G112 G42:G43 G123:G138">
     <cfRule type="duplicateValues" dxfId="43" priority="14078"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1133:G1048576 G573:G576 F572 G76:G95 G97 G72:G74 G1:G12 G38:G40 G118:G120 G46:G62 G64:G66 F63 G68 G115 G578:G1131 G99:G112 G42:G43 G122:G571">
+  <conditionalFormatting sqref="G1133:G1048576 G573:G576 F572 G76:G95 G97 G72:G74 G1:G12 G38:G40 G118:G120 G46:G62 G64:G66 F63 G68 G115 G578:G1131 G99:G112 G42:G43 G123:G498 G500:G571">
     <cfRule type="duplicateValues" dxfId="42" priority="14263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G387 G395">
@@ -31956,10 +31985,12 @@
     <hyperlink ref="G18" r:id="rId687" xr:uid="{BC93470D-D490-4709-AA72-6AD48B01550B}"/>
     <hyperlink ref="G17" r:id="rId688" xr:uid="{24F9A067-D956-4257-9844-D1D2198F368E}"/>
     <hyperlink ref="G13" r:id="rId689" xr:uid="{47027714-DF08-4D30-81B0-CE1310674E38}"/>
+    <hyperlink ref="G122" r:id="rId690" xr:uid="{F5B43BAA-4F59-4E93-8EBE-A440E2103F20}"/>
+    <hyperlink ref="G499" r:id="rId691" xr:uid="{DA7E9E86-1E01-4409-8BE9-0039B056F2FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId690"/>
-  <drawing r:id="rId691"/>
+  <pageSetup orientation="portrait" r:id="rId692"/>
+  <drawing r:id="rId693"/>
 </worksheet>
 </file>
 
